--- a/CourseProjects/680/680HW1/BonusInput.xlsx
+++ b/CourseProjects/680/680HW1/BonusInput.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyunying/Dropbox/课程共享/FE680/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Python\CourseProjects\680\680HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Time to next payment</t>
-  </si>
-  <si>
     <t>payment frequency</t>
   </si>
   <si>
@@ -43,15 +40,19 @@
   <si>
     <t>clean price</t>
   </si>
+  <si>
+    <t>time to next payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00000_);\(#,##0.00000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +62,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,17 +96,20 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,528 +377,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>0.43559999999999999</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.43559999999999999</v>
       </c>
       <c r="D2" s="2">
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>100.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>0.26440000000000002</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.76439999999999997</v>
       </c>
       <c r="D3" s="2">
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>100.48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>0.26579999999999998</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.2658</v>
       </c>
       <c r="D4" s="2">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>0.43419999999999997</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.9341999999999999</v>
       </c>
       <c r="D5" s="2">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>100.31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>2.0192000000000001</v>
       </c>
       <c r="D6" s="2">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>99.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>0.4753</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
         <v>2.9752999999999998</v>
       </c>
       <c r="D7" s="2">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>100.16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>0.35339999999999999</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>3.3534000000000002</v>
       </c>
       <c r="D8" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>102.34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>0.1</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>3.6</v>
       </c>
       <c r="D9" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>103.08</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>0.26850000000000002</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>4.2685000000000004</v>
       </c>
       <c r="D10" s="2">
         <v>2.1250000000000002E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>104.19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>0.43419999999999997</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
         <v>4.9341999999999997</v>
       </c>
       <c r="D11" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>102.06</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>0.22739999999999999</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>5.2274000000000003</v>
       </c>
       <c r="D12" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>115.91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>0.1027</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
         <v>5.6026999999999996</v>
       </c>
       <c r="D13" s="2">
         <v>2.375E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>104.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>0.2712</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>6.2712000000000003</v>
       </c>
       <c r="D14" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>105.86</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>0.437</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
         <v>6.9370000000000003</v>
       </c>
       <c r="D15" s="2">
         <v>2.375E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>102.97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>0.48220000000000002</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
         <v>7.4821999999999997</v>
       </c>
       <c r="D16" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>110.53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
         <v>7.726</v>
       </c>
       <c r="D17" s="2">
         <v>3.875E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>113.09</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>0.48220000000000002</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>8.4822000000000006</v>
       </c>
       <c r="D18" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>103.98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
         <v>8.7260000000000009</v>
       </c>
       <c r="D19" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>106.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>0.2301</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
         <v>9.2301000000000002</v>
       </c>
       <c r="D20" s="2">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>0.48080000000000001</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
         <v>9.9808000000000003</v>
       </c>
       <c r="D21" s="2">
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>101.19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>0.49320000000000003</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
         <v>25.493200000000002</v>
       </c>
       <c r="D22" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>117.58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>0.49590000000000001</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
         <v>26.495899999999999</v>
       </c>
       <c r="D23" s="2">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>122.28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>0.2397</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
         <v>26.739699999999999</v>
       </c>
       <c r="D24" s="2">
         <v>0.05</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>126.97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>0.49590000000000001</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
         <v>27.495899999999999</v>
       </c>
       <c r="D25" s="2">
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>115.19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>0.2397</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
         <v>27.739699999999999</v>
       </c>
       <c r="D26" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>117.47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>0.49590000000000001</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
         <v>28.495899999999999</v>
       </c>
       <c r="D27" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>98.98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>0.2397</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
         <v>28.739699999999999</v>
       </c>
       <c r="D28" s="2">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>112.44</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>0.24379999999999999</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
         <v>29.2438</v>
       </c>
       <c r="D29" s="2">
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>114.67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>0.4945</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
         <v>29.994499999999999</v>
       </c>
       <c r="D30" s="2">
         <v>3.875E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>105.75</v>
       </c>
     </row>
